--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5195">
   <si>
     <t>translation_group</t>
   </si>
@@ -15556,12 +15556,6 @@
   </si>
   <si>
     <t xml:space="preserve"> oznámení</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54,000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15948,17 +15942,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54605,18 +54599,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5179</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5180</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54626,10 +54612,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
       <c r="D2763" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54640,10 +54626,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="D2764" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54654,10 +54640,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="D2765" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54668,10 +54654,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="D2766" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54682,10 +54668,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
       <c r="D2767" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54696,10 +54682,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="D2768" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54710,10 +54696,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
       <c r="D2769" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54752,11 +54738,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="D2772" t="s">
-        <v>5196</v>
-      </c>
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5880">
   <si>
     <t>translation_group</t>
   </si>
@@ -10121,7 +10121,7 @@
     <t>Nastavení SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Vyplňte pole pro maximální výsledky při hledání vašeho webu ve vyhledávačích.</t>
@@ -17062,6 +17062,613 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Vítejte v Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Použijte Microweber k vytvoření své webové stránky, online obchodu nebo blogu.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Vytvářejte a upravujte obsah, prodávejte online, spravujte objednávky a klienty.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Odstranit</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Opuštěný vozík</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Používáte tuto šablonu.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Změna se dotkne pouze aktuální stránky.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Povolit více šablon</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Pokud povolíte více šablon, budete moci při vytváření nových stránek používat různé šablony.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Nastavení webových stránek systému e-mailem</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Doručujte zprávy související s novou registrací, resetováním hesla a dalšími funkcemi systému.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Z e-mailové adresy</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Př. Název vašeho webu</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Obecné nastavení poskytovatele e-mailu</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Nastavte svého poskytovatele e-mailu.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Obecný poskytovatel e-mailu bude doručovat všechny zprávy související s webem. Včetně systémových zpráv a zpráv kontaktního formuláře.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo webových stránek</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Vyberte logo pro svůj web.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Nahrajte logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Favicon webových stránek</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Změna výchozího jazyka ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Vyčistit mezipaměť..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Nainstalujte vícejazyčný modul</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Uživatelé se mohou zaregistrovat pomocí dočasných e-mailů jako - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Uživatelé registrace mohou od vás automaticky dostávat automatický e-mail. Podívejte se na nastavení a zveřejňujte své zprávy.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Odeslat e-mail o registraci nového uživatele uživatelům admin</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Chcete, aby administrátoři dostali e-mail při registraci nového uživatele?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber je bezplatný open source nástroj pro vytváření webových stránek a CMS. Je pod licencí MIT a používáme Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Doručení na adresu</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Vyzvednutí z adresy</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globální nastavení</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integrace e-mailů</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Nemáte systémový e-mail a nastavení SMTP.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Zde upravte nastavení systému.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globální nastavení kontaktního formuláře</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Možnosti odesílání e-mailů</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Globální odesílatel</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Použijte vlastní nastavení odesílatele</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Pro globální kontaktní formuláře použijte vlastní nastavení odesílatele.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Ve výchozím nastavení použijeme nastavení e-mailu systému webových stránek.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Zde můžete změnit nastavení e-mailu systému.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globální přijímače</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Po odeslání pošlete údaje kontaktních formulářů globálním příjemcům</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Na e-mailové adresy</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>E-mailová adresa příjemců oddělených kómatem.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Požádejte svého poskytovatele hostingu o povolení rozšíření PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementy</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>před 2 měsíci</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Odebrat logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Odebrat favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Zvyk</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProduktyV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Časová osa</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Bílý štítek WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Šablona modulu se změnila</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Verze obsahu</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Výchozí rozložení a prvky</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Seznam šipek</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Zkontrolovaný seznam</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Text na pozadí</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Nadpis s textem</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikona s textem</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dva textové sloupce</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dva textové sloupce s ikonou a nadpisem</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Obrázek s nadpisem a textem</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Text s obrázkem a nadpisem</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Povolit komentáře</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Nastavení Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nastavte své předvolby captcha z </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Aktuální nastavení kontaktního formuláře</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Název kontaktního formuláře</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Jaký je název tohoto kontaktního formuláře?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Přijímače</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Po odeslání odešlete údaje kontaktního formuláře do vlastních přijímačů</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Použijte vlastní nastavení přijímačů pro aktuální kontaktní formulář.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Ve výchozím nastavení použijeme globální nastavení kontaktního formuláře.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Zde můžete změnit globální nastavení kontaktního formuláře.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Automatická odpověď uživateli</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Povolit uživateli automatickou odpověď</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Umožněte uživatelům přijímat „E-maily s poděkováním po přihlášení“.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Automaticky reagovat na předmět</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto responders vám umožňuje nastavit automatické odpovědi na příchozí e-maily</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Automatická odpověď na e-mail odeslaný zpět uživateli</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Automaticky reagovat na vlastního odesílatele</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Použijte vlastní nastavení odesílatele pro aktuální kontaktní formulář.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Automatická odpověď z e-mailové adresy</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Automatická odpověď podle jména</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Automatická odpověď na e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Když uživatel obdrží zprávu s automatickou odpovědí, může odpovědět zpět a odpovědět na e-mail.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Automaticky reagovat na přílohy e-mailů</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Chcete-li připojit další obrázky, musíte je nahrát do galerie z „Přidat média“</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Zatím nemáte žádné příspěvky</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Vytvořte svůj první příspěvek hned teď.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Vytvořte příspěvek</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Jak psát popisy produktů, které prodávají
+                                                    Jednou z nejlepších věcí, které můžete udělat, aby byl váš obchod úspěšný, je investovat nějaký čas do psaní skvělých popisů produktů. Chcete poskytnout podrobné, ale stručné informace, které lákají potenciální zákazníky k nákupu.
+                                                    Přemýšlejte jako spotřebitel
+                                                    Přemýšlejte o tom, co byste jako spotřebitel chtěli vědět, a zahrňte tyto funkce do svého popisu. Na oblečení: materiály a fit. Pro jídlo: přísady a jak bylo připraveno. Odrážky jsou vašimi přáteli při uvádění
+                                                   funkcí - zkuste
+                                                            omezit každé na 5–8 slov.</t>
   </si>
 </sst>
 </file>
@@ -17400,7 +18007,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67708,6 +68315,1757 @@
         <v>3611</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>645</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4910</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6170">
   <si>
     <t>translation_group</t>
   </si>
@@ -17669,6 +17669,876 @@
                                                     Přemýšlejte o tom, co byste jako spotřebitel chtěli vědět, a zahrňte tyto funkce do svého popisu. Na oblečení: materiály a fit. Pro jídlo: přísady a jak bylo připraveno. Odrážky jsou vašimi přáteli při uvádění
                                                    funkcí - zkuste
                                                             omezit každé na 5–8 slov.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Jazyk administrátora</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Omezit</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Editor kódu</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>tituly</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titulky 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titulky 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titulky 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titulky 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titulky 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titulky 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titulky 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titulky 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>textový blok</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Textový blok 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Textový blok 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Textový blok 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Textový blok 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Textový blok 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Textový blok 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Textový blok 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Textový blok 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Textový blok 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Textový blok 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Textový blok 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Textový blok 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Textový blok 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Textový blok 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Textový blok 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>funkce</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Vlastnosti 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Vlastnosti 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Vlastnosti 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Vlastnosti 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>mřížky</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>zápatí</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Zápatí 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Zápatí 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Zápatí 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Zápatí 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>stanovení cen</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Ceny 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Výchozí rozložení</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Zde není žádný obsah</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Vlastní pole se uloží</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Stávající pole</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Vyberte si ze svých stávajících polí níže</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Přidejte nová pole</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Přidejte nové vlastní pole ze seznamu níže</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaše pole</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Seznam vašich přidaných vlastních polí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opakujte svisle </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Rodina písem</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Překryvná vrstva</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Režim prolnutí</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Kontejner</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Typ kontejneru</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animace</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Opětovné načítání stylů</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Odkazy na</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Náhled balíčku</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Použití</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktuální</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Přeobjednat</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Systém</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Přesměrování prohlížeče</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrace</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostatný aktualizátor</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>K instalaci tohoto balíčku potřebujete licenční klíč</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Tento balíček je prémiový a k jeho instalaci musíte mít licenční klíč</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Potřebujete licenční klíč</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licence aktivována</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Znovu načítání stránky</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licence není aktivována</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Systémové aktualizace</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Zkontrolujte aktualizace systému</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Zpět na seznam</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategorie musí mít název</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Je kategorie skrytá?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Pokud toto nastavíte na ANO, tato kategorie bude na webu skryta</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Zmínění</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Tvůj vozík je prázdný.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Výsledky nalezeny</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Pokud zvolíte Procento z pole výběru, bude automaticky vypočítáno z Ceny a Nabídkové ceny produktu.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Pokračujte k pokladně</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Zobrazuji</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>Výsledek)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Název stránky - Pravá drobečková navigace</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Název stránky – drobečková navigace vlevo</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Podmínky použití</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Doručení a vrácení</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Asi 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>asi 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Asi 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Domů 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Domů 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Chcete-li změnit šablonu, musíte kliknout na tlačítko použít šablonu</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Vyhledávání podle kritérií</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>číslo objednávky</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Datum od</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Nastavte objednávky od data</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Datum do</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Nastavte objednávky na datum</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Částka objednávky od</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Ukažte objednávku s minimální částkou</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Částka objednávky do</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Ukažte objednávku s maximální částkou</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Hledat podle produktů...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Vyhledávání podle produktů</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Status platby</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Bezplatné vyhledávání podle telefonu, jména, e-mailu atd...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Odešlete tato kritéria</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Resetovat filtr</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Exportovat vše</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Vyberte řazení</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Datum objednávky</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nové &gt; Staré]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Staré &gt; Nové]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Vysoká &gt; Nízká]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Nízká &gt; Vysoká]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Objednávka dokončena</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>ve vaší databázi byly nalezeny překlady z vícejazyčného modulu.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Varování! Změna výchozího jazyka může přerušit překlady na vašem webu.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Opravdu chcete pokračovat?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Varování! Změna výchozího jazyka může poškodit váš web.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Podrobnosti o přepravě</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Typ dopravy</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>objednávka ještě není dokončena</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>objednávka je dokončena</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Vytvořeno v</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Aktualizováno na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rychlý pohled </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Nahradit jazykové hodnoty</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Překlady se importují</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Překlady nebyly nalezeny v databázi. Přejete si importovat překlady? </t>
   </si>
 </sst>
 </file>
@@ -17692,10 +18562,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17706,7 +18573,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18007,7 +18874,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70069,8 +70936,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6050</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6060</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6060</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6157</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70082,5 +73583,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/cs_CZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5982">
   <si>
     <t>translation_group</t>
   </si>
@@ -17067,13 +17067,13 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Vítejte v Microweber</t>
+    <t>Vítejte v Microweberu</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Použijte Microweber k vytvoření své webové stránky, online obchodu nebo blogu.</t>
+    <t>Použijte Microweber k vytvoření svého webu, online obchodu nebo blogu.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17103,7 +17103,7 @@
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Změna se dotkne pouze aktuální stránky.</t>
+    <t>Změna ovlivní pouze aktuální stránku.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -17121,13 +17121,13 @@
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Nastavení webových stránek systému e-mailem</t>
+    <t>Nastavení systémového e-mailového webu</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Doručujte zprávy související s novou registrací, resetováním hesla a dalšími funkcemi systému.</t>
+    <t>Doručování zpráv souvisejících s novou registrací, resetováním hesla a dalšími funkcemi systému.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17145,13 +17145,13 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Obecné nastavení poskytovatele e-mailu</t>
+    <t>Obecná nastavení poskytovatele e-mailu</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Nastavte svého poskytovatele e-mailu.</t>
+    <t>Nastavte poskytovatele e-mailu.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
@@ -17163,7 +17163,7 @@
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logo webových stránek</t>
+    <t>Logo webové stránky</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17187,7 +17187,7 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Změna výchozího jazyka ..</t>
+    <t>Změna výchozího jazyka..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17205,31 +17205,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Uživatelé se mohou zaregistrovat pomocí dočasných e-mailů jako - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Uživatelé se mohou registrovat pomocí dočasných e-mailů jako - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Uživatelé registrace mohou od vás automaticky dostávat automatický e-mail. Podívejte se na nastavení a zveřejňujte své zprávy.</t>
+    <t>Registrovaní uživatelé od vás mohou automaticky dostávat automatický e-mail. Podívejte se na nastavení a zveřejněte své zprávy.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Odeslat e-mail o registraci nového uživatele uživatelům admin</t>
+    <t>Odeslat e-mail o registraci nového uživatele administrátorům</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Chcete, aby administrátoři dostali e-mail při registraci nového uživatele?</t>
+    <t>Chcete, aby správci obdrželi e-mail při registraci nového uživatele?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber je bezplatný open source nástroj pro vytváření webových stránek a CMS. Je pod licencí MIT a používáme Laravel PHP framework</t>
+    <t>Microweber je bezplatný nástroj pro tvorbu webových stránek a CMS s otevřeným zdrojovým kódem. Je pod licencí MIT a používáme PHP framework Laravel</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17238,7 +17238,7 @@
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>Doručení na adresu</t>
+    <t>Doprava na adresu</t>
   </si>
   <si>
     <t>Pickup from address</t>
@@ -17256,19 +17256,19 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>Integrace e-mailů</t>
+    <t>E-mailové integrace</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Nemáte systémový e-mail a nastavení SMTP.</t>
+    <t>Nemáte systémový e-mail a smtp nastavení.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Zde upravte nastavení systému.</t>
+    <t>Zde nastavte systémová nastavení.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17298,7 +17298,7 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Pro globální kontaktní formuláře použijte vlastní nastavení odesílatele.</t>
+    <t>Použijte vlastní nastavení odesílatele pro globální kontaktní formuláře.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
@@ -17310,7 +17310,7 @@
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Zde můžete změnit nastavení e-mailu systému.</t>
+    <t>Zde můžete změnit nastavení systémového e-mailu.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17322,7 +17322,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Po odeslání pošlete údaje kontaktních formulářů globálním příjemcům</t>
+    <t>Po odeslání odešlete data kontaktních formulářů globálním příjemcům</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17334,19 +17334,19 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>E-mailová adresa příjemců oddělených kómatem.</t>
+    <t>E-mailové adresy příjemců oddělené kómatou.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Požádejte svého poskytovatele hostingu o povolení rozšíření PHP SOAP.</t>
+    <t>Chcete-li povolit rozšíření PHP SOAP, kontaktujte svého poskytovatele hostingu.</t>
   </si>
   <si>
     <t>Elements</t>
   </si>
   <si>
-    <t>Elementy</t>
+    <t>Prvky</t>
   </si>
   <si>
     <t>2 months ago</t>
@@ -17358,9 +17358,6 @@
     <t>Remove logo</t>
   </si>
   <si>
-    <t>Odebrat logo</t>
-  </si>
-  <si>
     <t>Remove favicon</t>
   </si>
   <si>
@@ -17430,7 +17427,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Zkontrolovaný seznam</t>
+    <t>Kontrolovaný seznam</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17442,7 +17439,7 @@
     <t>Title with Text</t>
   </si>
   <si>
-    <t>Nadpis s textem</t>
+    <t>Název s textem</t>
   </si>
   <si>
     <t>Icon with Text</t>
@@ -17460,13 +17457,13 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>Dva textové sloupce s ikonou a nadpisem</t>
+    <t>Dva textové sloupce s ikonou a názvem</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>Obrázek s nadpisem a textem</t>
+    <t>Obrázek s názvem a textem</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
@@ -17487,18 +17484,21 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Nastavení Captcha</t>
+    <t>Nastavení captcha</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte své předvolby captcha z </t>
+    <t xml:space="preserve">Nastavte si předvolby captcha z </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Přidat / upravit pole formuláře pomocí vlastních polí</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17508,13 +17508,13 @@
     <t>Contact form name</t>
   </si>
   <si>
-    <t>Název kontaktního formuláře</t>
+    <t>Jméno kontaktního formuláře</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Jaký je název tohoto kontaktního formuláře?</t>
+    <t>Jak se jmenuje tento kontaktní formulář?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17526,7 +17526,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Po odeslání odešlete údaje kontaktního formuláře do vlastních přijímačů</t>
+    <t>Po odeslání odešlete data kontaktního formuláře vlastním příjemcům</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17550,31 +17550,31 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Automatická odpověď uživateli</t>
+    <t>Automatická odpověď na zprávu uživateli</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Povolit uživateli automatickou odpověď</t>
+    <t>Povolit automatickou odpověď uživateli</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Umožněte uživatelům přijímat „E-maily s poděkováním po přihlášení“.</t>
+    <t>Povolit uživatelům dostávat e-maily s poděkováním po přihlášení k odběru.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Automaticky reagovat na předmět</t>
+    <t>Automaticky reagovat předmět</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>Auto responders vám umožňuje nastavit automatické odpovědi na příchozí e-maily</t>
+    <t>Automatické odpovědi vám umožňují nastavit automatické odpovědi na příchozí e-maily</t>
   </si>
   <si>
     <t>Auto respond message</t>
@@ -17589,7 +17589,7 @@
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Automaticky reagovat na vlastního odesílatele</t>
+    <t>Automatická odpověď vlastního odesílatele</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17607,7 +17607,7 @@
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Automatická odpověď podle jména</t>
+    <t>Automatická odpověď od jména</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
@@ -17619,19 +17619,19 @@
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Když uživatel obdrží zprávu s automatickou odpovědí, může odpovědět zpět a odpovědět na e-mail.</t>
+    <t>Když uživatel obdrží zprávu s automatickou odpovědí, může odpovědět a odpovědět na e-mail.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Automaticky reagovat na přílohy e-mailů</t>
+    <t>Automatická odpověď na e-mailové přílohy</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Chcete-li připojit další obrázky, musíte je nahrát do galerie z „Přidat média“</t>
+    <t>Pokud chcete připojit obrázky, musíte je nahrát do galerie z 'Přidat média'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17643,13 +17643,13 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Vytvořte svůj první příspěvek hned teď.</t>
+    <t>Vytvořte svůj první příspěvek právě teď.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Vytvořte příspěvek</t>
+    <t>Vytvořit příspěvek</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17664,11 +17664,11 @@
   </si>
   <si>
     <t>Jak psát popisy produktů, které prodávají
-                                                    Jednou z nejlepších věcí, které můžete udělat, aby byl váš obchod úspěšný, je investovat nějaký čas do psaní skvělých popisů produktů. Chcete poskytnout podrobné, ale stručné informace, které lákají potenciální zákazníky k nákupu.
+                                                    Jednou z nejlepších věcí, které můžete udělat, aby byl váš obchod úspěšný, je investovat nějaký čas do psaní skvělých popisů produktů. Chcete poskytnout podrobné, ale stručné informace, které přilákají potenciální zákazníky k nákupu.
                                                     Přemýšlejte jako spotřebitel
-                                                    Přemýšlejte o tom, co byste jako spotřebitel chtěli vědět, a zahrňte tyto funkce do svého popisu. Na oblečení: materiály a fit. Pro jídlo: přísady a jak bylo připraveno. Odrážky jsou vašimi přáteli při uvádění
-                                                   funkcí - zkuste
-                                                            omezit každé na 5–8 slov.</t>
+                                                    Přemýšlejte o tom, co byste jako spotřebitel chtěli vědět, a poté tyto funkce zahrňte do svého popisu. Pro oblečení: materiály a střih. U jídla: přísady a způsob přípravy. Odrážky jsou vaši přátelé, když uvádíte
+                                                   funkce – zkuste
+                                                            omezit každou na 5–8 slov.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17677,328 +17677,256 @@
     <t>Jazyk administrátora</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Přidat podstránku</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategorie byla smazána</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Obsah smazán</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Hledat kategorie</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Vytvářejte obsah</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kartu</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Omezit</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Opravdu chcete smazat?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Zpět k</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Vlastní pole se uloží</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Stávající pole</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Vyberte si ze svých stávajících polí níže</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Přidejte nová pole</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Přidejte nové vlastní pole ze seznamu níže</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaše pole</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Seznam vašich přidaných vlastních polí</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Skladem</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Systém</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Přesměrování prohlížeče</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrace</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostatný aktualizátor</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Náhled balíčku</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Použití</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktuální</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Vyjádřit</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>První třída</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klikněte a shromážděte</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video pozadí</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Chcete-li používat více jazyků, můžete aktivovat vícejazyčný modul</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Vícejazyčný režim</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivujte vícejazyčný režim, abyste měli pro svůj obsah více jazyků.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Překlady se importují</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Překlady nebyly nalezeny v databázi. Přejete si importovat překlady? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Tvůj vozík je prázdný.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor kódu</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>tituly</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titulky 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titulky 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titulky 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titulky 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titulky 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titulky 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titulky 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titulky 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>textový blok</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Textový blok 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Textový blok 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Textový blok 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Textový blok 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Textový blok 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Textový blok 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Textový blok 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Textový blok 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Textový blok 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Textový blok 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Textový blok 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Textový blok 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Textový blok 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Textový blok 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Textový blok 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>funkce</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Vlastnosti 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Vlastnosti 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Vlastnosti 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Vlastnosti 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>mřížky</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>zápatí</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Zápatí 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Zápatí 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Zápatí 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Zápatí 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>stanovení cen</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Ceny 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Výchozí rozložení</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Zde není žádný obsah</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Vlastní pole se uloží</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Stávající pole</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Vyberte si ze svých stávajících polí níže</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Přidejte nová pole</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Přidejte nové vlastní pole ze seznamu níže</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Vaše pole</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Seznam vašich přidaných vlastních polí</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nový import</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18047,498 +17975,6 @@
   </si>
   <si>
     <t>Opětovné načítání stylů</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Odkazy na</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Náhled balíčku</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Použití</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Aktuální</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Přeobjednat</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Systém</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Přesměrování prohlížeče</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrace</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Samostatný aktualizátor</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>K instalaci tohoto balíčku potřebujete licenční klíč</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Tento balíček je prémiový a k jeho instalaci musíte mít licenční klíč</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Potřebujete licenční klíč</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licence aktivována</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Znovu načítání stránky</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licence není aktivována</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Systémové aktualizace</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Zkontrolujte aktualizace systému</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Zpět na seznam</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategorie musí mít název</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Je kategorie skrytá?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Pokud toto nastavíte na ANO, tato kategorie bude na webu skryta</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Zmínění</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Tvůj vozík je prázdný.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Výsledky nalezeny</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Pokud zvolíte Procento z pole výběru, bude automaticky vypočítáno z Ceny a Nabídkové ceny produktu.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Pokračujte k pokladně</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Zobrazuji</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>Výsledek)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Název stránky - Pravá drobečková navigace</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Název stránky – drobečková navigace vlevo</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Podmínky použití</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Doručení a vrácení</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Asi 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>asi 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Asi 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Domů 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Domů 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Chcete-li změnit šablonu, musíte kliknout na tlačítko použít šablonu</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Vyhledávání podle kritérií</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>číslo objednávky</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Datum od</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Nastavte objednávky od data</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Datum do</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Nastavte objednávky na datum</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Částka objednávky od</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Ukažte objednávku s minimální částkou</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Částka objednávky do</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Ukažte objednávku s maximální částkou</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Hledat podle produktů...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Vyhledávání podle produktů</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Status platby</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Bezplatné vyhledávání podle telefonu, jména, e-mailu atd...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Odešlete tato kritéria</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Resetovat filtr</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Exportovat vše</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Vyberte řazení</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Datum objednávky</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nové &gt; Staré]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Staré &gt; Nové]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Vysoká &gt; Nízká]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Nízká &gt; Vysoká]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Objednávka dokončena</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>ve vaší databázi byly nalezeny překlady z vícejazyčného modulu.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Varování! Změna výchozího jazyka může přerušit překlady na vašem webu.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Opravdu chcete pokračovat?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Varování! Změna výchozího jazyka může poškodit váš web.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Podrobnosti o přepravě</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Typ dopravy</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>objednávka ještě není dokončena</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>objednávka je dokončena</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Vytvořeno v</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Aktualizováno na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rychlý pohled </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Nahradit jazykové hodnoty</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Překlady se importují</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Překlady nebyly nalezeny v databázi. Přejete si importovat překlady? </t>
   </si>
 </sst>
 </file>
@@ -18874,7 +18310,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70029,7 +69465,7 @@
         <v>5778</v>
       </c>
       <c r="D3009" t="s">
-        <v>5779</v>
+        <v>3208</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70043,10 +69479,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3010" t="s">
         <v>5780</v>
-      </c>
-      <c r="D3010" t="s">
-        <v>5781</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70060,10 +69496,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5782</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5783</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70077,10 +69513,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
       <c r="D3012" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70094,10 +69530,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
       <c r="D3013" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70111,10 +69547,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3014" t="s">
         <v>5786</v>
-      </c>
-      <c r="D3014" t="s">
-        <v>5787</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70128,10 +69564,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3015" t="s">
         <v>5788</v>
-      </c>
-      <c r="D3015" t="s">
-        <v>5789</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70145,10 +69581,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3016" t="s">
         <v>5790</v>
-      </c>
-      <c r="D3016" t="s">
-        <v>5791</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70162,7 +69598,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="D3017" t="s">
         <v>3304</v>
@@ -70179,10 +69615,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3018" t="s">
         <v>5793</v>
-      </c>
-      <c r="D3018" t="s">
-        <v>5794</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70196,10 +69632,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3019" t="s">
         <v>5795</v>
-      </c>
-      <c r="D3019" t="s">
-        <v>5796</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70213,7 +69649,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="D3020" t="s">
         <v>1565</v>
@@ -70230,10 +69666,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3021" t="s">
         <v>5798</v>
-      </c>
-      <c r="D3021" t="s">
-        <v>5799</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70247,10 +69683,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3022" t="s">
         <v>5800</v>
-      </c>
-      <c r="D3022" t="s">
-        <v>5801</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70264,10 +69700,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3023" t="s">
         <v>5802</v>
-      </c>
-      <c r="D3023" t="s">
-        <v>5803</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70281,10 +69717,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3024" t="s">
         <v>5804</v>
-      </c>
-      <c r="D3024" t="s">
-        <v>5805</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70298,10 +69734,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3025" t="s">
         <v>5806</v>
-      </c>
-      <c r="D3025" t="s">
-        <v>5807</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70315,10 +69751,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3026" t="s">
         <v>5808</v>
-      </c>
-      <c r="D3026" t="s">
-        <v>5809</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70332,10 +69768,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3027" t="s">
         <v>5810</v>
-      </c>
-      <c r="D3027" t="s">
-        <v>5811</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70349,10 +69785,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3028" t="s">
         <v>5812</v>
-      </c>
-      <c r="D3028" t="s">
-        <v>5813</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70366,10 +69802,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3029" t="s">
         <v>5814</v>
-      </c>
-      <c r="D3029" t="s">
-        <v>5815</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70383,10 +69819,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3030" t="s">
         <v>5816</v>
-      </c>
-      <c r="D3030" t="s">
-        <v>5817</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70400,7 +69836,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
       <c r="D3031" t="s">
         <v>1121</v>
@@ -70417,10 +69853,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3032" t="s">
         <v>5819</v>
-      </c>
-      <c r="D3032" t="s">
-        <v>5820</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70434,10 +69870,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3033" t="s">
         <v>5821</v>
-      </c>
-      <c r="D3033" t="s">
-        <v>5822</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70451,10 +69887,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3034" t="s">
         <v>5823</v>
-      </c>
-      <c r="D3034" t="s">
-        <v>5824</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70468,10 +69904,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3035" t="s">
         <v>5825</v>
-      </c>
-      <c r="D3035" t="s">
-        <v>4910</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70709,7 +70145,7 @@
         <v>5852</v>
       </c>
       <c r="D3049" t="s">
-        <v>1960</v>
+        <v>3106</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70964,7 +70400,7 @@
         <v>5882</v>
       </c>
       <c r="D3064" t="s">
-        <v>5883</v>
+        <v>4236</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70978,10 +70414,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3065" t="s">
         <v>5884</v>
-      </c>
-      <c r="D3065" t="s">
-        <v>5885</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70995,7 +70431,7 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
       <c r="D3066" t="s">
         <v>5886</v>
@@ -71083,7 +70519,7 @@
         <v>5895</v>
       </c>
       <c r="D3071" t="s">
-        <v>5896</v>
+        <v>1385</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71097,10 +70533,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="D3072" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71114,10 +70550,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="D3073" t="s">
-        <v>5900</v>
+        <v>5897</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71131,10 +70567,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5901</v>
+        <v>5898</v>
       </c>
       <c r="D3074" t="s">
-        <v>5902</v>
+        <v>5899</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71148,10 +70584,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5903</v>
+        <v>5900</v>
       </c>
       <c r="D3075" t="s">
-        <v>5904</v>
+        <v>5901</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71165,10 +70601,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5905</v>
+        <v>5902</v>
       </c>
       <c r="D3076" t="s">
-        <v>5906</v>
+        <v>3484</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71182,10 +70618,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5907</v>
+        <v>5903</v>
       </c>
       <c r="D3077" t="s">
-        <v>5908</v>
+        <v>5904</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71199,10 +70635,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5909</v>
+        <v>5905</v>
       </c>
       <c r="D3078" t="s">
-        <v>5910</v>
+        <v>16</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71216,10 +70652,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5911</v>
+        <v>5906</v>
       </c>
       <c r="D3079" t="s">
-        <v>5912</v>
+        <v>5907</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71233,10 +70669,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5913</v>
+        <v>5908</v>
       </c>
       <c r="D3080" t="s">
-        <v>5914</v>
+        <v>5909</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71250,10 +70686,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5915</v>
+        <v>5910</v>
       </c>
       <c r="D3081" t="s">
-        <v>5916</v>
+        <v>5911</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71267,10 +70703,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5917</v>
+        <v>5912</v>
       </c>
       <c r="D3082" t="s">
-        <v>5918</v>
+        <v>5913</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71284,10 +70720,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5919</v>
+        <v>5914</v>
       </c>
       <c r="D3083" t="s">
-        <v>5920</v>
+        <v>5915</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71301,10 +70737,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5921</v>
+        <v>5916</v>
       </c>
       <c r="D3084" t="s">
-        <v>5922</v>
+        <v>5917</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71318,10 +70754,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5923</v>
+        <v>5918</v>
       </c>
       <c r="D3085" t="s">
-        <v>5924</v>
+        <v>5919</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71335,10 +70771,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5925</v>
+        <v>5920</v>
       </c>
       <c r="D3086" t="s">
-        <v>5926</v>
+        <v>5921</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71352,10 +70788,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5927</v>
+        <v>5922</v>
       </c>
       <c r="D3087" t="s">
-        <v>5928</v>
+        <v>5923</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71369,10 +70805,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5929</v>
+        <v>5924</v>
       </c>
       <c r="D3088" t="s">
-        <v>5930</v>
+        <v>5924</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71386,10 +70822,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5931</v>
+        <v>5925</v>
       </c>
       <c r="D3089" t="s">
-        <v>5932</v>
+        <v>5926</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71403,10 +70839,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5933</v>
+        <v>5927</v>
       </c>
       <c r="D3090" t="s">
-        <v>5934</v>
+        <v>5928</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71420,10 +70856,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5935</v>
+        <v>5929</v>
       </c>
       <c r="D3091" t="s">
-        <v>5936</v>
+        <v>5929</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71437,10 +70873,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5937</v>
+        <v>5930</v>
       </c>
       <c r="D3092" t="s">
-        <v>5938</v>
+        <v>5931</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71454,10 +70890,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5939</v>
+        <v>5932</v>
       </c>
       <c r="D3093" t="s">
-        <v>5940</v>
+        <v>5933</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71471,10 +70907,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5941</v>
+        <v>5934</v>
       </c>
       <c r="D3094" t="s">
-        <v>5942</v>
+        <v>5934</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71488,10 +70924,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5943</v>
+        <v>5935</v>
       </c>
       <c r="D3095" t="s">
-        <v>5944</v>
+        <v>5936</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71505,10 +70941,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5945</v>
+        <v>5937</v>
       </c>
       <c r="D3096" t="s">
-        <v>5946</v>
+        <v>5938</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71522,10 +70958,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5947</v>
+        <v>5939</v>
       </c>
       <c r="D3097" t="s">
-        <v>5948</v>
+        <v>5940</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71539,10 +70975,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5949</v>
+        <v>5941</v>
       </c>
       <c r="D3098" t="s">
-        <v>2205</v>
+        <v>5942</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71556,10 +70992,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5950</v>
+        <v>5943</v>
       </c>
       <c r="D3099" t="s">
-        <v>5950</v>
+        <v>5944</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71573,10 +71009,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5951</v>
+        <v>5945</v>
       </c>
       <c r="D3100" t="s">
-        <v>5951</v>
+        <v>5946</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71590,10 +71026,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5952</v>
+        <v>5947</v>
       </c>
       <c r="D3101" t="s">
-        <v>5952</v>
+        <v>1507</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71607,10 +71043,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5953</v>
+        <v>5948</v>
       </c>
       <c r="D3102" t="s">
-        <v>5953</v>
+        <v>5949</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71624,10 +71060,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5954</v>
+        <v>5950</v>
       </c>
       <c r="D3103" t="s">
-        <v>5954</v>
+        <v>5951</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71641,10 +71077,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5955</v>
+        <v>5952</v>
       </c>
       <c r="D3104" t="s">
-        <v>5956</v>
+        <v>5953</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71658,10 +71094,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5957</v>
+        <v>5954</v>
       </c>
       <c r="D3105" t="s">
-        <v>5958</v>
+        <v>5955</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71675,10 +71111,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5959</v>
+        <v>5956</v>
       </c>
       <c r="D3106" t="s">
-        <v>5960</v>
+        <v>5957</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71692,10 +71128,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5961</v>
+        <v>5958</v>
       </c>
       <c r="D3107" t="s">
-        <v>5962</v>
+        <v>5959</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71709,10 +71145,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5963</v>
+        <v>5960</v>
       </c>
       <c r="D3108" t="s">
-        <v>5964</v>
+        <v>5961</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71725,11 +71161,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1284</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71742,11 +71178,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5963</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71760,10 +71196,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5966</v>
+        <v>5964</v>
       </c>
       <c r="D3111" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71777,7 +71213,7 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5967</v>
+        <v>5966</v>
       </c>
       <c r="D3112" t="s">
         <v>5967</v>
@@ -71902,1672 +71338,6 @@
         <v>5981</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5999</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6000</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6001</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6002</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6003</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6004</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6005</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6006</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6007</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2708</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6050</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5877</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6060</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6060</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3772</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6157</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
